--- a/games/P&D.xlsx
+++ b/games/P&D.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Diário" sheetId="1" r:id="rId1"/>
-    <sheet name="Definições" sheetId="2" r:id="rId2"/>
-    <sheet name="Animações" sheetId="5" r:id="rId3"/>
-    <sheet name="Tarefas" sheetId="3" r:id="rId4"/>
-    <sheet name="Links" sheetId="4" r:id="rId5"/>
+    <sheet name="Tarefas" sheetId="3" r:id="rId1"/>
+    <sheet name="Diário" sheetId="1" r:id="rId2"/>
+    <sheet name="Game" sheetId="2" r:id="rId3"/>
+    <sheet name="Links" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
   <si>
     <t>Naves em render, fluids para particulas</t>
   </si>
@@ -47,18 +46,12 @@
     <t>Weapon change</t>
   </si>
   <si>
-    <t>Pesquisas</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
     <t>Nave player, comprada, testes de renders</t>
   </si>
   <si>
-    <t>Exaustor final</t>
-  </si>
-  <si>
     <t>Remodelagem high-poly da nave</t>
   </si>
   <si>
@@ -77,9 +70,6 @@
     <t>Som</t>
   </si>
   <si>
-    <t>Desenvolvimento C#</t>
-  </si>
-  <si>
     <t>Maya</t>
   </si>
   <si>
@@ -155,36 +145,12 @@
     <t>Nova animação da nave, keyframes</t>
   </si>
   <si>
-    <t>Player</t>
-  </si>
-  <si>
-    <t>Idle horizontal</t>
-  </si>
-  <si>
-    <t>Subindo</t>
-  </si>
-  <si>
-    <t>Descendo</t>
-  </si>
-  <si>
-    <t>Subindo em repetição</t>
-  </si>
-  <si>
-    <t>Descendo em repetição</t>
-  </si>
-  <si>
-    <t>Explosão</t>
-  </si>
-  <si>
     <t>Maya, arnold, volume shader (bosta)</t>
   </si>
   <si>
     <t>Maya Fluids (aprovado!)</t>
   </si>
   <si>
-    <t>Refinado</t>
-  </si>
-  <si>
     <t>Nivel detalhe: poder ver pilotos na cabine</t>
   </si>
   <si>
@@ -293,22 +259,37 @@
     <t>Shield, gastando energia por segundo (não atira)</t>
   </si>
   <si>
-    <t>HUD</t>
-  </si>
-  <si>
-    <t>[===][===][===]</t>
-  </si>
-  <si>
-    <t>Energia, 1 tiro de dano = [===]</t>
-  </si>
-  <si>
-    <t>[1] * *</t>
-  </si>
-  <si>
-    <t>[2] *</t>
-  </si>
-  <si>
     <t>Storm Laser (1,2,3)</t>
+  </si>
+  <si>
+    <t>Fluids</t>
+  </si>
+  <si>
+    <t>Fluids upgrade</t>
+  </si>
+  <si>
+    <t>Efeitos 2D em texturas (efeito de luzes no sprite)</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>Melhorias nos exaustores</t>
+  </si>
+  <si>
+    <t>PLAN</t>
+  </si>
+  <si>
+    <t>Nova gravação dos sprites</t>
+  </si>
+  <si>
+    <t>Programação</t>
+  </si>
+  <si>
+    <t>Efeitos de nublina, fogo, chuva e neve via canal alpha</t>
+  </si>
+  <si>
+    <t>exaustor funcional e animações de repeat</t>
   </si>
 </sst>
 </file>
@@ -402,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -411,18 +392,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,6 +495,53 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1971675" y="5105400"/>
+          <a:ext cx="5695950" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -809,10 +834,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D33"/>
+  <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="45.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="59.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="59.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="26.25">
+      <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:D43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -823,33 +997,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>44086</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="8">
+      <c r="B13" s="6">
         <v>44089</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="D25" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="8">
-        <v>44090</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4">
-      <c r="D33" s="1" t="s">
-        <v>54</v>
+      <c r="B27" s="6">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -858,12 +1032,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:I27"/>
+  <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E18" sqref="E18:O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -884,7 +1058,7 @@
     </row>
     <row r="3" spans="2:6">
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -894,18 +1068,18 @@
     </row>
     <row r="5" spans="2:6">
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="2:6">
       <c r="C7" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F7" s="4"/>
     </row>
@@ -914,7 +1088,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -922,13 +1096,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -939,10 +1113,10 @@
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -950,13 +1124,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -964,13 +1138,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -978,113 +1152,99 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:5">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:9" ht="26.25">
+    <row r="18" spans="2:5" ht="26.25">
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
+        <v>51</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" s="3">
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="3">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23" s="3">
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" s="3">
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" s="3">
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
       <c r="B26" s="3">
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
       <c r="B27" s="3">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1093,221 +1253,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.140625" style="5"/>
-    <col min="3" max="3" width="6.85546875" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" ht="26.25">
-      <c r="B2" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="5">
-        <v>31</v>
-      </c>
-      <c r="C4" s="5">
-        <v>60</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="5">
-        <v>61</v>
-      </c>
-      <c r="C5" s="5">
-        <v>90</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="5">
-        <v>91</v>
-      </c>
-      <c r="C6" s="7">
-        <v>120</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="5">
-        <v>121</v>
-      </c>
-      <c r="C7" s="5">
-        <v>150</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="5">
-        <v>151</v>
-      </c>
-      <c r="C8" s="5">
-        <v>250</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="59.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="59.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" ht="26.25">
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="F8" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:M11"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1316,118 +1267,118 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" ht="21">
-      <c r="B2" s="9" t="s">
-        <v>21</v>
+      <c r="B2" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="21">
-      <c r="B10" s="9" t="s">
-        <v>27</v>
+      <c r="B10" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/games/P&D.xlsx
+++ b/games/P&D.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tarefas" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>Naves em render, fluids para particulas</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>exaustor funcional e animações de repeat</t>
+  </si>
+  <si>
+    <t>exaustor 2</t>
   </si>
 </sst>
 </file>
@@ -383,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -401,6 +404,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,6 +534,53 @@
         <a:xfrm>
           <a:off x="1971675" y="5105400"/>
           <a:ext cx="5695950" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1933575" y="8382000"/>
+          <a:ext cx="3990975" cy="1847850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -983,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D43"/>
+  <dimension ref="B2:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1021,9 +1072,19 @@
         <v>44118</v>
       </c>
     </row>
-    <row r="43" spans="4:4">
+    <row r="43" spans="2:4">
       <c r="D43" s="1" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="13">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="D59" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1036,7 +1097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18:O24"/>
     </sheetView>
   </sheetViews>
